--- a/spec/models/DE/Air/EGRVlv/EGRVlv_DD/EGRVlv_DDInspectReport.xlsx
+++ b/spec/models/DE/Air/EGRVlv/EGRVlv_DD/EGRVlv_DDInspectReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\01_FIS\03_SVNwc\trunk\spec\model\swCore\DE\Air\EGRVlv\EGRVlv_DD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\T3\spec\model\swCore\DE\Air\EGRVlv\EGRVlv_DD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F551CB2-2F8C-44DE-A989-66DD66C2D259}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A834DC69-9629-4D42-9610-A2E71E28FC6D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3345" yWindow="2655" windowWidth="19500" windowHeight="9285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>检查项目</t>
   </si>
@@ -39,6 +39,58 @@
   </si>
   <si>
     <t>检查状态</t>
+  </si>
+  <si>
+    <t>相同信号</t>
+  </si>
+  <si>
+    <t>转换公式单位</t>
+  </si>
+  <si>
+    <t>信号属性</t>
+  </si>
+  <si>
+    <t>表格与模型一致性</t>
+  </si>
+  <si>
+    <t>表格与数据一致性</t>
+  </si>
+  <si>
+    <t>信号库完善</t>
+  </si>
+  <si>
+    <t>代码生成配置</t>
+  </si>
+  <si>
+    <t>外层端口设置</t>
+  </si>
+  <si>
+    <t>SignalName</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Typedef</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>DefaultValue</t>
+  </si>
+  <si>
+    <t>Root-in</t>
+  </si>
+  <si>
+    <t>浮点数检查</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -225,54 +277,7 @@
 如果上述检查项目全部通过的话，在 sheet:overview‘检查状态’下面打‘√’，反之，打‘X’。
 </t>
     </r>
-  </si>
-  <si>
-    <t>相同信号</t>
-  </si>
-  <si>
-    <t>转换公式单位</t>
-  </si>
-  <si>
-    <t>信号属性</t>
-  </si>
-  <si>
-    <t>表格与模型一致性</t>
-  </si>
-  <si>
-    <t>表格与数据一致性</t>
-  </si>
-  <si>
-    <t>信号库完善</t>
-  </si>
-  <si>
-    <t>代码生成配置</t>
-  </si>
-  <si>
-    <t>外层端口设置</t>
-  </si>
-  <si>
-    <t>SignalName</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Typedef</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>DefaultValue</t>
-  </si>
-  <si>
-    <t>Root-in</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
@@ -282,7 +287,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,14 +305,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFC00000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -355,6 +352,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFC00000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -384,7 +395,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -401,23 +412,26 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -697,7 +711,7 @@
   <dimension ref="A1:M94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C9"/>
+      <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -717,7 +731,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
@@ -729,13 +743,13 @@
     </row>
     <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>20</v>
+        <v>3</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
@@ -748,12 +762,12 @@
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="12"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -765,12 +779,12 @@
     </row>
     <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="12"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
@@ -782,12 +796,12 @@
     </row>
     <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="12"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -799,12 +813,12 @@
     </row>
     <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="9"/>
+        <v>7</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="12"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -816,12 +830,12 @@
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="12"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
@@ -833,12 +847,12 @@
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="12"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -850,12 +864,12 @@
     </row>
     <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="12"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -866,6 +880,13 @@
       <c r="M9" s="11"/>
     </row>
     <row r="10" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="12"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -1717,12 +1738,12 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C2:C9"/>
     <mergeCell ref="F1:M94"/>
+    <mergeCell ref="C2:C10"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1736,41 +1757,41 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.625" customWidth="1"/>
-    <col min="2" max="2" width="50.625" style="1" customWidth="1"/>
-    <col min="3" max="6" width="15.625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="50.5" style="1" customWidth="1"/>
+    <col min="3" max="6" width="15.5" style="1" customWidth="1"/>
+    <col min="7" max="8" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1789,34 +1810,34 @@
     <col min="1" max="1" width="23.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="56.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1831,16 +1852,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.625" customWidth="1"/>
-    <col min="2" max="2" width="5.625" customWidth="1"/>
-    <col min="3" max="3" width="40.625" customWidth="1"/>
-    <col min="4" max="4" width="5.625" customWidth="1"/>
-    <col min="5" max="5" width="40.625" customWidth="1"/>
-    <col min="6" max="6" width="5.625" customWidth="1"/>
-    <col min="7" max="7" width="40.625" customWidth="1"/>
+    <col min="1" max="1" width="40.5" customWidth="1"/>
+    <col min="2" max="2" width="5.5" customWidth="1"/>
+    <col min="3" max="3" width="40.5" customWidth="1"/>
+    <col min="4" max="4" width="5.5" customWidth="1"/>
+    <col min="5" max="5" width="40.5" customWidth="1"/>
+    <col min="6" max="6" width="5.5" customWidth="1"/>
+    <col min="7" max="7" width="40.5" customWidth="1"/>
   </cols>
   <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1856,14 +1877,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.625" customWidth="1"/>
-    <col min="2" max="2" width="5.625" customWidth="1"/>
-    <col min="3" max="3" width="45.625" customWidth="1"/>
-    <col min="4" max="4" width="5.625" customWidth="1"/>
-    <col min="5" max="5" width="45.625" customWidth="1"/>
+    <col min="1" max="1" width="45.5" customWidth="1"/>
+    <col min="2" max="2" width="5.5" customWidth="1"/>
+    <col min="3" max="3" width="45.5" customWidth="1"/>
+    <col min="4" max="4" width="5.5" customWidth="1"/>
+    <col min="5" max="5" width="45.5" customWidth="1"/>
   </cols>
   <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1878,7 +1899,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1893,7 +1914,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>